--- a/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.65</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8556</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,300 +550,410 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>76.69</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.22</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>52.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>010307</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>81.27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.95</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>010308</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>81.27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.95</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001219</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根动态多因子策略混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002076</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007386</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002303</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金鹰智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011125</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国文体健康股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007074</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国寿安保新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>52.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009353</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009354</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>001186</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>富国文体健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>23.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0611</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001186</t>
+          <t>166801</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国文体健康股票A</t>
+          <t>浙商聚潮新思维混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011125</t>
+          <t>378010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国文体健康股票C</t>
+          <t>上投摩根成长先锋混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4471</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166801</t>
+          <t>007177</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商聚潮新思维混合</t>
+          <t>浙商智能行业优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>75.34</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2715</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007074</t>
+          <t>010552</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国寿安保新蓝筹灵活配置混合</t>
+          <t>浙商智选领航三年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43.60</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009353</t>
+          <t>006102</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
+          <t>浙商丰利增强债券</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>34.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009354</t>
+          <t>007074</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
+          <t>国寿安保新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>43.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006102</t>
+          <t>009353</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙商丰利增强债券</t>
+          <t>浙商科技创新一个月滚动持有混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>34.62</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>378010</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上投摩根成长先锋混合</t>
+          <t>申万菱信量化小盘股票(LOF)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010552</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浙商智选领航三年持有期混合A</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010553</t>
+          <t>009354</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>浙商智选领航三年持有期混合C</t>
+          <t>浙商科技创新一个月滚动持有混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007177</t>
+          <t>005027</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浙商智能行业优选混合A</t>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>30.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007217</t>
+          <t>009205</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浙商智能行业优选混合C</t>
+          <t>兴银丰运稳益回报混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001339</t>
+          <t>011125</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>兴银鼎新灵活配置混合</t>
+          <t>富国文体健康股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005027</t>
+          <t>010553</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+          <t>浙商智选领航三年持有期混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>30.59</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>007217</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>浙商智能行业优选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009205</t>
+          <t>001339</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合A</t>
+          <t>兴银鼎新灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>35.55</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1360,15 +1670,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>35.55</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,3364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6915</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5326</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1831</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1172</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0669</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8708</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7358</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6933</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5112</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3653</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3408</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3069</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2680</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>61.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>51.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5056,4 +5057,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4848</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9043</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7945</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7873</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6745</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4955</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3749</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6025,4 +6026,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>87</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6034,7 +6035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6045,17 +6046,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6065,14 +6086,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.029999999999999</v>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6084</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6081,14 +6124,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>87</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.48</v>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6097,14 +6162,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.98</v>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1760</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -6113,13 +6200,1783 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8991</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8745</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7551</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6328</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5511</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2715</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>87</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7875,7 +7876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7886,17 +7887,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7906,14 +7927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.15</v>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3691</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7922,14 +7965,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.029999999999999</v>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -7938,14 +8003,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>87</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.48</v>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8525</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -7954,14 +8041,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.98</v>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -7970,13 +8079,1535 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7487</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6164</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5567</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4887</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501073</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安科创主题 3 年封闭运作灵活配置 混合型</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009027</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>87</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9490,7 +9491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9501,17 +9502,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9521,14 +9542,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.31</v>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -9537,14 +9580,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.15</v>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -9553,14 +9618,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.029999999999999</v>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -9569,14 +9656,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>87</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.48</v>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -9585,14 +9694,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.98</v>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -9601,13 +9732,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.52</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>10.31</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>11.15</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>9.029999999999999</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>21.48</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="D7" t="n">
-        <v>2.98</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.46</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +1374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2839,7 +2988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4679,7 +4828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5647,7 +5796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9007,7 +9156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9747,7 +9896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300327-中颖电子.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.52</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>10.31</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>11.15</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>9.029999999999999</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>21.48</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="D8" t="n">
-        <v>2.98</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,542 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8556</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>52.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1146,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>江信祺福债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014831</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015937</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014832</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002724</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>江信祺福债券C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +1865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1374,7 +2491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2988,7 +4105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4828,7 +5945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5796,7 +6913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9156,7 +10273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9894,516 +11011,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001186</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国文体健康股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8556</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>166801</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商聚潮新思维混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>76.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2777</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007074</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国寿安保新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>52.18</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1185</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009353</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0662</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001219</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根动态多因子策略混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010307</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002076</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0268</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009354</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011125</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国文体健康股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010308</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002303</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>金鹰智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007386</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>